--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1262,17 +1262,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1281,24 +1281,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.79296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.6640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.86328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="185.94140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="159.4140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -261,13 +261,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>infrastructure.documents</t>
   </si>
   <si>
     <t>List.id</t>
@@ -353,7 +350,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -411,10 +408,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -465,10 +458,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>List.extension:label</t>
   </si>
   <si>
@@ -502,7 +491,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -545,7 +534,7 @@
     <t>The current state of the list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-status|4.0.1</t>
   </si>
   <si>
     <t>.status[current=active;retired=obsolete;entered-in-error=nullified]</t>
@@ -572,7 +561,7 @@
     <t>The processing mode that applies to this list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
@@ -789,10 +778,6 @@
   </si>
   <si>
     <t xml:space="preserve">lst-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
 </t>
   </si>
   <si>
@@ -1520,15 +1505,15 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1539,28 +1524,28 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1610,13 +1595,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1633,10 +1618,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1647,25 +1632,25 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1716,19 +1701,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1739,10 +1724,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1753,28 +1738,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1824,19 +1809,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1847,10 +1832,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1861,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1873,16 +1858,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1908,43 +1893,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -1955,21 +1940,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1981,16 +1966,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2040,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2063,14 +2048,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2089,16 +2074,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2148,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2160,10 +2145,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2171,10 +2156,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2197,13 +2182,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2242,17 +2227,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2264,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2275,13 +2260,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2291,7 +2276,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2303,13 +2288,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2360,7 +2345,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2369,10 +2354,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2383,13 +2368,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -2411,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2468,7 +2453,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2477,10 +2462,10 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2491,14 +2476,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2511,25 +2496,25 @@
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2578,7 +2563,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2590,10 +2575,10 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
@@ -2601,10 +2586,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2627,13 +2612,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2684,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2696,21 +2681,21 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2718,31 +2703,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2768,57 +2753,57 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2826,34 +2811,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -2878,57 +2863,57 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2936,32 +2921,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -2974,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>20</v>
@@ -3010,22 +2995,22 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3033,10 +3018,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3044,34 +3029,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3096,11 +3081,11 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3118,33 +3103,33 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3155,31 +3140,31 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3228,33 +3213,33 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3265,7 +3250,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3277,13 +3262,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3334,33 +3319,33 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3371,31 +3356,31 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3444,68 +3429,68 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3554,33 +3539,33 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3591,7 +3576,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3603,19 +3588,19 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3640,13 +3625,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -3664,22 +3649,22 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3687,10 +3672,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3713,13 +3698,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3770,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3782,10 +3767,10 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -3793,10 +3778,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3804,7 +3789,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -3819,16 +3804,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3878,7 +3863,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3887,13 +3872,13 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -3901,10 +3886,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3915,7 +3900,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3927,13 +3912,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3984,13 +3969,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -3999,7 +3984,7 @@
         <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4007,14 +3992,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4033,16 +4018,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4092,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4104,10 +4089,10 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4115,14 +4100,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4135,25 +4120,25 @@
         <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4202,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4214,10 +4199,10 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4225,10 +4210,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4239,7 +4224,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4251,19 +4236,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4288,13 +4273,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4312,22 +4297,22 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4335,10 +4320,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4349,97 +4334,97 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="P29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="R29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="AJ29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4447,10 +4432,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4461,7 +4446,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4473,17 +4458,17 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4532,22 +4517,22 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -4555,10 +4540,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4566,10 +4551,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4581,13 +4566,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4638,22 +4623,22 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -4661,10 +4646,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4675,7 +4660,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4687,19 +4672,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -4724,13 +4709,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -4748,22 +4733,22 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-collection.xlsx
+++ b/StructureDefinition-ncpi-research-collection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
